--- a/data/trans_orig/IP3102-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP3102-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAFB263A-AB22-42ED-8CA8-8FD2784DDEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A3D376F-A363-450C-AAC9-A1F7F75407B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C6BE6344-A353-4018-A154-2BDA780A4B68}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7612DD5C-6114-4CE8-9628-876C7DB68F5F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="527">
   <si>
     <t>Menores según la frecuencia de tomar verdura o puré de verdura en 2007 (Tasa respuesta: 93,2%)</t>
   </si>
@@ -112,1471 +112,1459 @@
     <t>15,05%</t>
   </si>
   <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
   </si>
   <si>
     <t>7,6%</t>
   </si>
   <si>
-    <t>4,05%</t>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia de tomar verdura o puré de verdura en 2012 (Tasa respuesta: 91,52%)</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia de tomar verdura o puré de verdura en 2016 (Tasa respuesta: 92,52%)</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
   </si>
   <si>
     <t>13,38%</t>
   </si>
   <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
   </si>
   <si>
     <t>31,45%</t>
   </si>
   <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
   </si>
   <si>
     <t>21,85%</t>
   </si>
   <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia de tomar verdura o puré de verdura en 2012 (Tasa respuesta: 91,52%)</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia de tomar verdura o puré de verdura en 2015 (Tasa respuesta: 92,52%)</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
+    <t>27,26%</t>
   </si>
   <si>
     <t>24,85%</t>
   </si>
   <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
   </si>
   <si>
     <t>24,83%</t>
   </si>
   <si>
-    <t>22,96%</t>
+    <t>22,88%</t>
   </si>
   <si>
     <t>26,89%</t>
@@ -1585,28 +1573,31 @@
     <t>22,73%</t>
   </si>
   <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
   </si>
   <si>
     <t>22,32%</t>
   </si>
   <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
   </si>
   <si>
     <t>32,4%</t>
   </si>
   <si>
-    <t>29,86%</t>
+    <t>29,52%</t>
   </si>
   <si>
     <t>35,51%</t>
@@ -1615,19 +1606,19 @@
     <t>31,63%</t>
   </si>
   <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
   </si>
   <si>
     <t>32,03%</t>
   </si>
   <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
   </si>
 </sst>
 </file>
@@ -2039,7 +2030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F282212-CF50-4848-9C23-1E3FD7E3C965}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D93895-EA83-4450-8BFA-59503906330F}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2773,7 +2764,7 @@
         <v>70</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="H16" s="7">
         <v>39</v>
@@ -2782,13 +2773,13 @@
         <v>25636</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M16" s="7">
         <v>78</v>
@@ -2797,13 +2788,13 @@
         <v>51786</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2818,13 +2809,13 @@
         <v>104426</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H17" s="7">
         <v>94</v>
@@ -2833,13 +2824,13 @@
         <v>63085</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M17" s="7">
         <v>251</v>
@@ -2848,13 +2839,13 @@
         <v>167511</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2869,13 +2860,13 @@
         <v>172723</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>221</v>
@@ -2971,13 +2962,13 @@
         <v>53283</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H20" s="7">
         <v>85</v>
@@ -2986,13 +2977,13 @@
         <v>53880</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M20" s="7">
         <v>168</v>
@@ -3001,13 +2992,13 @@
         <v>107162</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,7 +3054,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3075,13 +3066,13 @@
         <v>5577</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -3090,13 +3081,13 @@
         <v>9617</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M22" s="7">
         <v>22</v>
@@ -3105,13 +3096,13 @@
         <v>15194</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,13 +3117,13 @@
         <v>22792</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H23" s="7">
         <v>38</v>
@@ -3141,13 +3132,13 @@
         <v>27398</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M23" s="7">
         <v>72</v>
@@ -3156,13 +3147,13 @@
         <v>50190</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3177,13 +3168,13 @@
         <v>54378</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H24" s="7">
         <v>94</v>
@@ -3192,13 +3183,13 @@
         <v>64890</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M24" s="7">
         <v>176</v>
@@ -3207,13 +3198,13 @@
         <v>119268</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,13 +3219,13 @@
         <v>40822</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H25" s="7">
         <v>50</v>
@@ -3243,13 +3234,13 @@
         <v>34469</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M25" s="7">
         <v>110</v>
@@ -3258,13 +3249,13 @@
         <v>75292</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,13 +3270,13 @@
         <v>19252</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H26" s="7">
         <v>36</v>
@@ -3294,13 +3285,13 @@
         <v>23069</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M26" s="7">
         <v>65</v>
@@ -3309,13 +3300,13 @@
         <v>42321</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,13 +3374,13 @@
         <v>43743</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H28" s="7">
         <v>63</v>
@@ -3398,13 +3389,13 @@
         <v>41861</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M28" s="7">
         <v>128</v>
@@ -3413,13 +3404,13 @@
         <v>85604</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,13 +3425,13 @@
         <v>146403</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H29" s="7">
         <v>163</v>
@@ -3449,13 +3440,13 @@
         <v>111157</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>170</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>171</v>
+        <v>83</v>
       </c>
       <c r="M29" s="7">
         <v>383</v>
@@ -3464,13 +3455,13 @@
         <v>257559</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3485,13 +3476,13 @@
         <v>253220</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H30" s="7">
         <v>364</v>
@@ -3500,13 +3491,13 @@
         <v>246939</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M30" s="7">
         <v>744</v>
@@ -3515,13 +3506,13 @@
         <v>500158</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3536,13 +3527,13 @@
         <v>145441</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H31" s="7">
         <v>222</v>
@@ -3551,13 +3542,13 @@
         <v>148424</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M31" s="7">
         <v>440</v>
@@ -3566,13 +3557,13 @@
         <v>293864</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,7 +3584,7 @@
         <v>193</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="H32" s="7">
         <v>138</v>
@@ -3602,13 +3593,13 @@
         <v>88053</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M32" s="7">
         <v>266</v>
@@ -3617,13 +3608,13 @@
         <v>171468</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3679,7 +3670,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3699,7 +3690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB40A53-BC71-4B15-85A3-195A2641B3FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83CE397-34E8-4E9F-989E-CFFE915F39B8}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3716,7 +3707,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4119,13 +4110,13 @@
         <v>6380</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -4134,13 +4125,13 @@
         <v>6826</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -4149,7 +4140,7 @@
         <v>13206</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>208</v>
+        <v>30</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>209</v>
@@ -4254,10 +4245,10 @@
         <v>226</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>80</v>
+        <v>227</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>227</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4293,7 +4284,7 @@
         <v>232</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>233</v>
+        <v>32</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -4302,13 +4293,13 @@
         <v>24297</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4323,13 +4314,13 @@
         <v>12424</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H14" s="7">
         <v>31</v>
@@ -4338,13 +4329,13 @@
         <v>21257</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M14" s="7">
         <v>48</v>
@@ -4353,13 +4344,13 @@
         <v>33680</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4427,13 +4418,13 @@
         <v>17683</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -4442,13 +4433,13 @@
         <v>14573</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M16" s="7">
         <v>49</v>
@@ -4457,13 +4448,13 @@
         <v>32256</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>252</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>253</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4478,13 +4469,13 @@
         <v>100886</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H17" s="7">
         <v>110</v>
@@ -4493,13 +4484,13 @@
         <v>78286</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M17" s="7">
         <v>256</v>
@@ -4508,13 +4499,13 @@
         <v>179172</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4529,13 +4520,13 @@
         <v>130468</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H18" s="7">
         <v>201</v>
@@ -4544,13 +4535,13 @@
         <v>141445</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M18" s="7">
         <v>393</v>
@@ -4559,13 +4550,13 @@
         <v>271912</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4580,13 +4571,13 @@
         <v>80586</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>274</v>
+        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>109</v>
@@ -4595,13 +4586,13 @@
         <v>73958</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M19" s="7">
         <v>225</v>
@@ -4610,13 +4601,13 @@
         <v>154544</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4631,13 +4622,13 @@
         <v>118172</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H20" s="7">
         <v>155</v>
@@ -4646,13 +4637,13 @@
         <v>104163</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>103</v>
+        <v>281</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>284</v>
+        <v>212</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M20" s="7">
         <v>318</v>
@@ -4661,13 +4652,13 @@
         <v>222335</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4723,7 +4714,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4735,13 +4726,13 @@
         <v>2365</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>245</v>
+        <v>70</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -4750,13 +4741,13 @@
         <v>2652</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>289</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -4765,13 +4756,13 @@
         <v>5017</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,13 +4777,13 @@
         <v>26063</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="H23" s="7">
         <v>39</v>
@@ -4801,13 +4792,13 @@
         <v>26853</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M23" s="7">
         <v>77</v>
@@ -4816,13 +4807,13 @@
         <v>52917</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,13 +4828,13 @@
         <v>52437</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="H24" s="7">
         <v>56</v>
@@ -4852,13 +4843,13 @@
         <v>39725</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="M24" s="7">
         <v>132</v>
@@ -4867,13 +4858,13 @@
         <v>92163</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4888,13 +4879,13 @@
         <v>25317</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="H25" s="7">
         <v>32</v>
@@ -4903,13 +4894,13 @@
         <v>22878</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>317</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="M25" s="7">
         <v>68</v>
@@ -4918,13 +4909,13 @@
         <v>48195</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>31</v>
+        <v>317</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,13 +4930,13 @@
         <v>48807</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>322</v>
+        <v>188</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H26" s="7">
         <v>86</v>
@@ -4954,13 +4945,13 @@
         <v>61206</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M26" s="7">
         <v>152</v>
@@ -4969,13 +4960,13 @@
         <v>110013</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>329</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5043,13 +5034,13 @@
         <v>26428</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>332</v>
+        <v>249</v>
       </c>
       <c r="H28" s="7">
         <v>36</v>
@@ -5058,13 +5049,13 @@
         <v>24051</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="M28" s="7">
         <v>75</v>
@@ -5073,13 +5064,13 @@
         <v>50479</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5094,13 +5085,13 @@
         <v>151084</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="H29" s="7">
         <v>177</v>
@@ -5109,13 +5100,13 @@
         <v>124897</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="M29" s="7">
         <v>394</v>
@@ -5124,13 +5115,13 @@
         <v>275981</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>190</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5145,13 +5136,13 @@
         <v>212581</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H30" s="7">
         <v>295</v>
@@ -5160,13 +5151,13 @@
         <v>206590</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="M30" s="7">
         <v>606</v>
@@ -5175,13 +5166,13 @@
         <v>419171</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>353</v>
+        <v>37</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,13 +5187,13 @@
         <v>115283</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="H31" s="7">
         <v>162</v>
@@ -5211,28 +5202,28 @@
         <v>111754</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="M31" s="7">
         <v>327</v>
       </c>
       <c r="N31" s="7">
-        <v>227036</v>
+        <v>227037</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,13 +5238,13 @@
         <v>180044</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="H32" s="7">
         <v>272</v>
@@ -5262,13 +5253,13 @@
         <v>186625</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="M32" s="7">
         <v>519</v>
@@ -5277,13 +5268,13 @@
         <v>366669</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>103</v>
+        <v>365</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,7 +5316,7 @@
         <v>1921</v>
       </c>
       <c r="N33" s="7">
-        <v>1339336</v>
+        <v>1339337</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>21</v>
@@ -5339,7 +5330,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -5359,7 +5350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{920DE9A6-CC70-421D-8900-A7ADBA443226}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70EC7BD8-02C4-4EA6-837D-77878660E541}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5376,7 +5367,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5755,13 +5746,13 @@
         <v>3379</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -5770,13 +5761,13 @@
         <v>3739</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -5785,13 +5776,13 @@
         <v>7118</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5806,13 +5797,13 @@
         <v>8423</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="H11" s="7">
         <v>11</v>
@@ -5821,13 +5812,13 @@
         <v>7347</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>28</v>
+        <v>380</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>120</v>
+        <v>371</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="M11" s="7">
         <v>23</v>
@@ -5836,13 +5827,13 @@
         <v>15770</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5857,13 +5848,13 @@
         <v>15230</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="H12" s="7">
         <v>18</v>
@@ -5872,13 +5863,13 @@
         <v>12197</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>393</v>
+        <v>226</v>
       </c>
       <c r="M12" s="7">
         <v>40</v>
@@ -5887,13 +5878,13 @@
         <v>27427</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5908,13 +5899,13 @@
         <v>10305</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>51</v>
+        <v>394</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -5923,13 +5914,13 @@
         <v>10594</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="M13" s="7">
         <v>30</v>
@@ -5938,13 +5929,13 @@
         <v>20899</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>402</v>
+        <v>33</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5959,13 +5950,13 @@
         <v>29256</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>406</v>
+        <v>143</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="H14" s="7">
         <v>32</v>
@@ -5974,13 +5965,13 @@
         <v>21020</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="M14" s="7">
         <v>75</v>
@@ -5989,13 +5980,13 @@
         <v>50276</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6063,13 +6054,13 @@
         <v>26618</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
@@ -6078,13 +6069,13 @@
         <v>21568</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>157</v>
+        <v>414</v>
       </c>
       <c r="M16" s="7">
         <v>72</v>
@@ -6093,13 +6084,13 @@
         <v>48186</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6114,13 +6105,13 @@
         <v>71862</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H17" s="7">
         <v>115</v>
@@ -6129,13 +6120,13 @@
         <v>78129</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>389</v>
+        <v>422</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>426</v>
+        <v>340</v>
       </c>
       <c r="M17" s="7">
         <v>217</v>
@@ -6144,13 +6135,13 @@
         <v>149991</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6165,13 +6156,13 @@
         <v>119917</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H18" s="7">
         <v>158</v>
@@ -6180,13 +6171,13 @@
         <v>106730</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>260</v>
+        <v>430</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="M18" s="7">
         <v>328</v>
@@ -6195,13 +6186,13 @@
         <v>226648</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6216,13 +6207,13 @@
         <v>104025</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>300</v>
+        <v>427</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H19" s="7">
         <v>146</v>
@@ -6231,13 +6222,13 @@
         <v>96108</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="M19" s="7">
         <v>291</v>
@@ -6246,13 +6237,13 @@
         <v>200134</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6267,13 +6258,13 @@
         <v>136744</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="H20" s="7">
         <v>210</v>
@@ -6282,13 +6273,13 @@
         <v>138768</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>37</v>
+        <v>445</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>446</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>412</v>
+        <v>447</v>
       </c>
       <c r="M20" s="7">
         <v>406</v>
@@ -6297,13 +6288,13 @@
         <v>275512</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6359,7 +6350,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6371,7 +6362,7 @@
         <v>9288</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>450</v>
+        <v>246</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>451</v>
@@ -6386,13 +6377,13 @@
         <v>2738</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>373</v>
+        <v>453</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M22" s="7">
         <v>18</v>
@@ -6401,13 +6392,13 @@
         <v>12025</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6422,10 +6413,10 @@
         <v>19437</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>459</v>
+        <v>206</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>460</v>
@@ -6440,10 +6431,10 @@
         <v>461</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>228</v>
+        <v>462</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>462</v>
+        <v>274</v>
       </c>
       <c r="M23" s="7">
         <v>63</v>
@@ -6476,10 +6467,10 @@
         <v>466</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>231</v>
+        <v>467</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H24" s="7">
         <v>62</v>
@@ -6488,13 +6479,13 @@
         <v>43305</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>470</v>
+        <v>136</v>
       </c>
       <c r="M24" s="7">
         <v>115</v>
@@ -6506,10 +6497,10 @@
         <v>471</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6524,13 +6515,13 @@
         <v>43153</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>476</v>
       </c>
       <c r="H25" s="7">
         <v>60</v>
@@ -6539,10 +6530,10 @@
         <v>38980</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>478</v>
@@ -6578,10 +6569,10 @@
         <v>482</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>483</v>
+        <v>404</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>484</v>
+        <v>43</v>
       </c>
       <c r="H26" s="7">
         <v>73</v>
@@ -6590,13 +6581,13 @@
         <v>46724</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>432</v>
+        <v>484</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>486</v>
+        <v>324</v>
       </c>
       <c r="M26" s="7">
         <v>157</v>
@@ -6605,13 +6596,13 @@
         <v>105234</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6679,13 +6670,13 @@
         <v>39285</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>491</v>
+        <v>416</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>492</v>
+        <v>378</v>
       </c>
       <c r="H28" s="7">
         <v>43</v>
@@ -6694,13 +6685,13 @@
         <v>28044</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="M28" s="7">
         <v>100</v>
@@ -6709,13 +6700,13 @@
         <v>67330</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>497</v>
+        <v>458</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6730,13 +6721,13 @@
         <v>99721</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>204</v>
+        <v>493</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="H29" s="7">
         <v>161</v>
@@ -6745,13 +6736,13 @@
         <v>110368</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="M29" s="7">
         <v>303</v>
@@ -6760,13 +6751,13 @@
         <v>210089</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>504</v>
+        <v>208</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6781,13 +6772,13 @@
         <v>171854</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>441</v>
+        <v>502</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="H30" s="7">
         <v>238</v>
@@ -6796,13 +6787,13 @@
         <v>162233</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="M30" s="7">
         <v>483</v>
@@ -6811,13 +6802,13 @@
         <v>334087</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6832,13 +6823,13 @@
         <v>157484</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="H31" s="7">
         <v>222</v>
@@ -6847,13 +6838,13 @@
         <v>145682</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>477</v>
+        <v>515</v>
       </c>
       <c r="M31" s="7">
         <v>443</v>
@@ -6862,13 +6853,13 @@
         <v>303166</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6883,13 +6874,13 @@
         <v>224509</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="H32" s="7">
         <v>315</v>
@@ -6898,13 +6889,13 @@
         <v>206513</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="M32" s="7">
         <v>638</v>
@@ -6913,13 +6904,13 @@
         <v>431022</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6975,7 +6966,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
